--- a/Чертежи и спеки шкафов/Чертежи/Актуальные/1.АСУ Зд/Спецификация АСУ Зд.xlsx
+++ b/Чертежи и спеки шкафов/Чертежи/Актуальные/1.АСУ Зд/Спецификация АСУ Зд.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DB6600-FDFC-4FE5-83F2-3398CB1EAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB8E2D-F7C7-4B24-ADB1-B90C06AA20BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -969,14 +969,14 @@
   </sheetPr>
   <dimension ref="A1:J702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
@@ -2126,7 +2126,7 @@
         <v>1295</v>
       </c>
       <c r="H46" s="14">
-        <f>G46*F46</f>
+        <f t="shared" ref="H46:H51" si="2">G46*F46</f>
         <v>595700</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
         <v>37.53</v>
       </c>
       <c r="H47" s="14">
-        <f>G47*F47</f>
+        <f t="shared" si="2"/>
         <v>41921.01</v>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
         <v>421.49</v>
       </c>
       <c r="H48" s="14">
-        <f>G48*F48</f>
+        <f t="shared" si="2"/>
         <v>5057.88</v>
       </c>
       <c r="J48"/>
@@ -2202,7 +2202,7 @@
         <v>431.7</v>
       </c>
       <c r="H49" s="14">
-        <f>G49*F49</f>
+        <f t="shared" si="2"/>
         <v>6907.2</v>
       </c>
       <c r="J49"/>
@@ -2224,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="14">
-        <f>G50*F50</f>
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
       <c r="J50"/>
@@ -2246,7 +2246,7 @@
         <v>33.33</v>
       </c>
       <c r="H51" s="14">
-        <f>G51*F51</f>
+        <f t="shared" si="2"/>
         <v>6666</v>
       </c>
       <c r="J51"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>133</v>
